--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Adm2-Ramp3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Adm2-Ramp3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -88,10 +88,7 @@
     <t>ECs</t>
   </si>
   <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
+    <t>Inflammatory-Mac</t>
   </si>
 </sst>
 </file>
@@ -449,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,7 +537,7 @@
         <v>0.1932546666666667</v>
       </c>
       <c r="H2">
-        <v>0.5797640000000001</v>
+        <v>0.5797639999999999</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -549,34 +546,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.9276133333333334</v>
+        <v>0.5477486666666667</v>
       </c>
       <c r="N2">
-        <v>2.78284</v>
+        <v>1.643246</v>
       </c>
       <c r="O2">
-        <v>0.6228334980591008</v>
+        <v>0.430739219238867</v>
       </c>
       <c r="P2">
-        <v>0.6228334980591007</v>
+        <v>0.430739219238867</v>
       </c>
       <c r="Q2">
-        <v>0.1792656055288889</v>
+        <v>0.1058549859937778</v>
       </c>
       <c r="R2">
-        <v>1.61339044976</v>
+        <v>0.9526948739439999</v>
       </c>
       <c r="S2">
-        <v>0.6228334980591008</v>
+        <v>0.430739219238867</v>
       </c>
       <c r="T2">
-        <v>0.6228334980591007</v>
+        <v>0.430739219238867</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,7 +599,7 @@
         <v>0.1932546666666667</v>
       </c>
       <c r="H3">
-        <v>0.5797640000000001</v>
+        <v>0.5797639999999999</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -617,16 +614,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.4838249999999999</v>
+        <v>0.483825</v>
       </c>
       <c r="N3">
         <v>1.451475</v>
       </c>
       <c r="O3">
-        <v>0.3248577897383009</v>
+        <v>0.3804708535695413</v>
       </c>
       <c r="P3">
-        <v>0.3248577897383008</v>
+        <v>0.3804708535695413</v>
       </c>
       <c r="Q3">
         <v>0.0935014391</v>
@@ -635,10 +632,10 @@
         <v>0.8415129519</v>
       </c>
       <c r="S3">
-        <v>0.3248577897383009</v>
+        <v>0.3804708535695413</v>
       </c>
       <c r="T3">
-        <v>0.3248577897383008</v>
+        <v>0.3804708535695413</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,7 +661,7 @@
         <v>0.1932546666666667</v>
       </c>
       <c r="H4">
-        <v>0.5797640000000001</v>
+        <v>0.5797639999999999</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -673,96 +670,34 @@
         <v>1</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.05018766666666667</v>
+        <v>0.2400743333333334</v>
       </c>
       <c r="N4">
-        <v>0.150563</v>
+        <v>0.7202230000000001</v>
       </c>
       <c r="O4">
-        <v>0.03369783385615859</v>
+        <v>0.1887899271915918</v>
       </c>
       <c r="P4">
-        <v>0.03369783385615859</v>
+        <v>0.1887899271915918</v>
       </c>
       <c r="Q4">
-        <v>0.009699000792444444</v>
+        <v>0.04639548526355556</v>
       </c>
       <c r="R4">
-        <v>0.08729100713200001</v>
+        <v>0.417559367372</v>
       </c>
       <c r="S4">
-        <v>0.03369783385615859</v>
+        <v>0.1887899271915918</v>
       </c>
       <c r="T4">
-        <v>0.03369783385615859</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G5">
-        <v>0.1932546666666667</v>
-      </c>
-      <c r="H5">
-        <v>0.5797640000000001</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M5">
-        <v>0.027718</v>
-      </c>
-      <c r="N5">
-        <v>0.08315399999999999</v>
-      </c>
-      <c r="O5">
-        <v>0.01861087834643977</v>
-      </c>
-      <c r="P5">
-        <v>0.01861087834643977</v>
-      </c>
-      <c r="Q5">
-        <v>0.005356632850666667</v>
-      </c>
-      <c r="R5">
-        <v>0.048209695656</v>
-      </c>
-      <c r="S5">
-        <v>0.01861087834643977</v>
-      </c>
-      <c r="T5">
-        <v>0.01861087834643977</v>
+        <v>0.1887899271915918</v>
       </c>
     </row>
   </sheetData>
